--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>74.669016613182</v>
+        <v>345.8128046417778</v>
       </c>
       <c r="R2">
-        <v>672.021149518638</v>
+        <v>3112.315241776</v>
       </c>
       <c r="S2">
-        <v>0.001514180208802982</v>
+        <v>0.006497454009466956</v>
       </c>
       <c r="T2">
-        <v>0.001514180208802982</v>
+        <v>0.006497454009466955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>4907.476191315108</v>
+        <v>9709.54160495338</v>
       </c>
       <c r="R3">
-        <v>44167.28572183597</v>
+        <v>87385.87444458042</v>
       </c>
       <c r="S3">
-        <v>0.09951655534123298</v>
+        <v>0.1824319376968754</v>
       </c>
       <c r="T3">
-        <v>0.09951655534123302</v>
+        <v>0.1824319376968754</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>24.90980100544789</v>
+        <v>177.6200898743555</v>
       </c>
       <c r="R4">
-        <v>224.188209049031</v>
+        <v>1598.5808088692</v>
       </c>
       <c r="S4">
-        <v>0.0005051349193878511</v>
+        <v>0.003337292169708708</v>
       </c>
       <c r="T4">
-        <v>0.0005051349193878513</v>
+        <v>0.003337292169708708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>2114.766716767994</v>
+        <v>1605.210266823511</v>
       </c>
       <c r="R5">
-        <v>19032.90045091195</v>
+        <v>14446.8924014116</v>
       </c>
       <c r="S5">
-        <v>0.04288442588381505</v>
+        <v>0.03016018997623293</v>
       </c>
       <c r="T5">
-        <v>0.04288442588381507</v>
+        <v>0.03016018997623293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>271.4627112041944</v>
+        <v>1010.882448556933</v>
       </c>
       <c r="R6">
-        <v>2443.16440083775</v>
+        <v>9097.942037012401</v>
       </c>
       <c r="S6">
-        <v>0.005504873150570265</v>
+        <v>0.01899340374420166</v>
       </c>
       <c r="T6">
-        <v>0.005504873150570267</v>
+        <v>0.01899340374420166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>46.83077787706399</v>
+        <v>36.5081878356</v>
       </c>
       <c r="R7">
-        <v>421.477000893576</v>
+        <v>328.5736905204</v>
       </c>
       <c r="S7">
-        <v>0.0009496607862354033</v>
+        <v>0.0006859499366326659</v>
       </c>
       <c r="T7">
-        <v>0.0009496607862354037</v>
+        <v>0.0006859499366326658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>53.957545927182</v>
+        <v>126.3026031849733</v>
       </c>
       <c r="R8">
-        <v>485.6179133446381</v>
+        <v>1136.72342866476</v>
       </c>
       <c r="S8">
-        <v>0.001094181386930083</v>
+        <v>0.002373091292326243</v>
       </c>
       <c r="T8">
-        <v>0.001094181386930084</v>
+        <v>0.002373091292326242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>3546.254979507664</v>
+        <v>3546.254979507665</v>
       </c>
       <c r="R9">
         <v>31916.29481556898</v>
       </c>
       <c r="S9">
-        <v>0.07191294795211715</v>
+        <v>0.06663035123601831</v>
       </c>
       <c r="T9">
-        <v>0.07191294795211717</v>
+        <v>0.06663035123601829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>18.00039417622567</v>
+        <v>64.87290067907966</v>
       </c>
       <c r="R10">
-        <v>162.003547586031</v>
+        <v>583.8561061117169</v>
       </c>
       <c r="S10">
-        <v>0.0003650220914718948</v>
+        <v>0.001218892658008058</v>
       </c>
       <c r="T10">
-        <v>0.0003650220914718949</v>
+        <v>0.001218892658008057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>1528.178988032106</v>
+        <v>586.2774097363823</v>
       </c>
       <c r="R11">
-        <v>13753.61089228895</v>
+        <v>5276.496687627441</v>
       </c>
       <c r="S11">
-        <v>0.03098927084005928</v>
+        <v>0.01101552763639728</v>
       </c>
       <c r="T11">
-        <v>0.03098927084005929</v>
+        <v>0.01101552763639728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>196.1651883430833</v>
+        <v>369.208667385811</v>
       </c>
       <c r="R12">
-        <v>1765.48669508775</v>
+        <v>3322.878006472299</v>
       </c>
       <c r="S12">
-        <v>0.0039779477394747</v>
+        <v>0.006937037333596974</v>
       </c>
       <c r="T12">
-        <v>0.003977947739474701</v>
+        <v>0.006937037333596972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>33.84099540506399</v>
+        <v>13.334032457181</v>
       </c>
       <c r="R13">
-        <v>304.5689586455759</v>
+        <v>120.006292114629</v>
       </c>
       <c r="S13">
-        <v>0.0006862466898953968</v>
+        <v>0.0002505322575924261</v>
       </c>
       <c r="T13">
-        <v>0.0006862466898953971</v>
+        <v>0.0002505322575924261</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>95.48673602365803</v>
+        <v>285.0584292958355</v>
       </c>
       <c r="R14">
-        <v>859.3806242129222</v>
+        <v>2565.52586366252</v>
       </c>
       <c r="S14">
-        <v>0.001936333601917196</v>
+        <v>0.0053559440526767</v>
       </c>
       <c r="T14">
-        <v>0.001936333601917197</v>
+        <v>0.005355944052676699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>6275.680394319889</v>
+        <v>8003.713691162144</v>
       </c>
       <c r="R15">
-        <v>56481.123548879</v>
+        <v>72033.42322045928</v>
       </c>
       <c r="S15">
-        <v>0.1272617677433628</v>
+        <v>0.1503812493789435</v>
       </c>
       <c r="T15">
-        <v>0.1272617677433629</v>
+        <v>0.1503812493789434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>31.85465271802101</v>
+        <v>146.4147745582121</v>
       </c>
       <c r="R16">
-        <v>286.691874462189</v>
+        <v>1317.732971023909</v>
       </c>
       <c r="S16">
-        <v>0.0006459665185332624</v>
+        <v>0.002750977555570612</v>
       </c>
       <c r="T16">
-        <v>0.0006459665185332626</v>
+        <v>0.002750977555570611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>2704.363608827742</v>
+        <v>1323.197727811895</v>
       </c>
       <c r="R17">
-        <v>24339.27247944967</v>
+        <v>11908.77955030706</v>
       </c>
       <c r="S17">
-        <v>0.05484060242961691</v>
+        <v>0.02486147495548898</v>
       </c>
       <c r="T17">
-        <v>0.05484060242961693</v>
+        <v>0.02486147495548898</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>347.14650628525</v>
+        <v>833.2848267052136</v>
       </c>
       <c r="R18">
-        <v>3124.31855656725</v>
+        <v>7499.563440346923</v>
       </c>
       <c r="S18">
-        <v>0.007039631606443697</v>
+        <v>0.0156565337246904</v>
       </c>
       <c r="T18">
-        <v>0.007039631606443699</v>
+        <v>0.0156565337246904</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>59.887197230616</v>
+        <v>30.094220171037</v>
       </c>
       <c r="R19">
-        <v>538.984775075544</v>
+        <v>270.847981539333</v>
       </c>
       <c r="S19">
-        <v>0.00121442618264335</v>
+        <v>0.0005654383206389313</v>
       </c>
       <c r="T19">
-        <v>0.00121442618264335</v>
+        <v>0.0005654383206389311</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>31.82324282585401</v>
+        <v>46.66420557108889</v>
       </c>
       <c r="R20">
-        <v>286.4091854326861</v>
+        <v>419.9778501398</v>
       </c>
       <c r="S20">
-        <v>0.000645329571118697</v>
+        <v>0.0008767706849390393</v>
       </c>
       <c r="T20">
-        <v>0.0006453295711186971</v>
+        <v>0.0008767706849390392</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>2091.520868787596</v>
+        <v>1310.211881610144</v>
       </c>
       <c r="R21">
-        <v>18823.68781908836</v>
+        <v>11791.9069344913</v>
       </c>
       <c r="S21">
-        <v>0.04241303353736021</v>
+        <v>0.02461748474651655</v>
       </c>
       <c r="T21">
-        <v>0.04241303353736022</v>
+        <v>0.02461748474651655</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>10.61632631706745</v>
+        <v>23.96817086064277</v>
       </c>
       <c r="R22">
-        <v>95.54693685360701</v>
+        <v>215.7135377457849</v>
       </c>
       <c r="S22">
-        <v>0.0002152838209022282</v>
+        <v>0.0004503363836379422</v>
       </c>
       <c r="T22">
-        <v>0.0002152838209022282</v>
+        <v>0.0004503363836379422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>901.293974398761</v>
+        <v>216.6081211292005</v>
       </c>
       <c r="R23">
-        <v>8111.645769588848</v>
+        <v>1949.473090162805</v>
       </c>
       <c r="S23">
-        <v>0.01827694484605089</v>
+        <v>0.004069835721010774</v>
       </c>
       <c r="T23">
-        <v>0.01827694484605089</v>
+        <v>0.004069835721010774</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>115.6948915179722</v>
+        <v>136.4091374133216</v>
       </c>
       <c r="R24">
-        <v>1041.25402366175</v>
+        <v>1227.682236719895</v>
       </c>
       <c r="S24">
-        <v>0.002346125915969206</v>
+        <v>0.002562982298276181</v>
       </c>
       <c r="T24">
-        <v>0.002346125915969207</v>
+        <v>0.00256298229827618</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>19.958843489608</v>
+        <v>4.926438695504999</v>
       </c>
       <c r="R25">
-        <v>179.629591406472</v>
+        <v>44.33794825954499</v>
       </c>
       <c r="S25">
-        <v>0.0004047366253545307</v>
+        <v>9.256253217014352E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004047366253545308</v>
+        <v>9.256253217014351E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>138.747462310896</v>
+        <v>376.6677787401334</v>
       </c>
       <c r="R26">
-        <v>1248.727160798064</v>
+        <v>3390.0100086612</v>
       </c>
       <c r="S26">
-        <v>0.002813598879186357</v>
+        <v>0.007077186085539247</v>
       </c>
       <c r="T26">
-        <v>0.002813598879186357</v>
+        <v>0.007077186085539246</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>9118.907664519944</v>
+        <v>10575.87058614331</v>
       </c>
       <c r="R27">
-        <v>82070.1689806795</v>
+        <v>95182.83527528975</v>
       </c>
       <c r="S27">
-        <v>0.1849183254019221</v>
+        <v>0.1987093358637271</v>
       </c>
       <c r="T27">
-        <v>0.1849183254019222</v>
+        <v>0.198709335863727</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>46.28655676664089</v>
+        <v>193.4681533319767</v>
       </c>
       <c r="R28">
-        <v>416.579010899768</v>
+        <v>1741.21337998779</v>
       </c>
       <c r="S28">
-        <v>0.000938624765245809</v>
+        <v>0.003635060390181846</v>
       </c>
       <c r="T28">
-        <v>0.0009386247652458091</v>
+        <v>0.003635060390181846</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>3929.588584929948</v>
+        <v>1748.434348003963</v>
       </c>
       <c r="R29">
-        <v>35366.29726436953</v>
+        <v>15735.90913203567</v>
       </c>
       <c r="S29">
-        <v>0.07968640185611625</v>
+        <v>0.03285121780408371</v>
       </c>
       <c r="T29">
-        <v>0.07968640185611628</v>
+        <v>0.03285121780408371</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>504.4229052424444</v>
+        <v>1101.07792815757</v>
       </c>
       <c r="R30">
-        <v>4539.806147182</v>
+        <v>9909.70135341813</v>
       </c>
       <c r="S30">
-        <v>0.01022897065782667</v>
+        <v>0.02068808066969614</v>
       </c>
       <c r="T30">
-        <v>0.01022897065782668</v>
+        <v>0.02068808066969614</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>87.01938077139198</v>
+        <v>39.76561258947</v>
       </c>
       <c r="R31">
-        <v>783.1744269425279</v>
+        <v>357.89051330523</v>
       </c>
       <c r="S31">
-        <v>0.001764627821857121</v>
+        <v>0.0007471534757829701</v>
       </c>
       <c r="T31">
-        <v>0.001764627821857121</v>
+        <v>0.00074715347578297</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>100.223042554968</v>
+        <v>247.8457255930978</v>
       </c>
       <c r="R32">
-        <v>902.007382994712</v>
+        <v>2230.61153033788</v>
       </c>
       <c r="S32">
-        <v>0.002032379082865285</v>
+        <v>0.004656757013819294</v>
       </c>
       <c r="T32">
-        <v>0.002032379082865285</v>
+        <v>0.004656757013819293</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>6586.964948361688</v>
+        <v>6958.875877221682</v>
       </c>
       <c r="R33">
-        <v>59282.68453525519</v>
+        <v>62629.88289499513</v>
       </c>
       <c r="S33">
-        <v>0.1335741705633692</v>
+        <v>0.1307498605110195</v>
       </c>
       <c r="T33">
-        <v>0.1335741705633692</v>
+        <v>0.1307498605110195</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>33.43469834533822</v>
+        <v>127.3011856817245</v>
       </c>
       <c r="R34">
-        <v>300.912285108044</v>
+        <v>1145.710671135521</v>
       </c>
       <c r="S34">
-        <v>0.0006780075701823484</v>
+        <v>0.002391853593086102</v>
       </c>
       <c r="T34">
-        <v>0.0006780075701823485</v>
+        <v>0.002391853593086101</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>2838.504700637125</v>
+        <v>1150.462036021148</v>
       </c>
       <c r="R35">
-        <v>25546.54230573412</v>
+        <v>10354.15832419033</v>
       </c>
       <c r="S35">
-        <v>0.05756079074356258</v>
+        <v>0.02161595541966249</v>
       </c>
       <c r="T35">
-        <v>0.05756079074356259</v>
+        <v>0.02161595541966249</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>364.365570770111</v>
+        <v>724.5043867344764</v>
       </c>
       <c r="R36">
-        <v>3279.290136931</v>
+        <v>6520.539480610287</v>
       </c>
       <c r="S36">
-        <v>0.007388809456101838</v>
+        <v>0.01361266520289982</v>
       </c>
       <c r="T36">
-        <v>0.00738880945610184</v>
+        <v>0.01361266520289981</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>62.85770533673599</v>
+        <v>26.165596480953</v>
       </c>
       <c r="R37">
-        <v>565.7193480306239</v>
+        <v>235.490368328577</v>
       </c>
       <c r="S37">
-        <v>0.00127466381249827</v>
+        <v>0.000491623668884595</v>
       </c>
       <c r="T37">
-        <v>0.00127466381249827</v>
+        <v>0.0004916236688845949</v>
       </c>
     </row>
   </sheetData>
